--- a/public/data/Routes.xlsx
+++ b/public/data/Routes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\web-projects\baltic-rails-leaflet\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B1B7AB-3198-405A-B92A-5F3F961B590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEE0D79-2369-40E4-9499-CDA125B4EB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,10 +333,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E740"/>
+  <dimension ref="A1:E741"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A631" workbookViewId="0">
-      <selection activeCell="E650" sqref="E650"/>
+    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
+      <selection activeCell="J647" sqref="J647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5942,19 +5942,19 @@
       <c r="B509" s="4">
         <v>21</v>
       </c>
-      <c r="C509" s="4">
-        <v>463</v>
+      <c r="C509" s="1">
+        <v>599</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="4">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B510" s="4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C510" s="4">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -5965,18 +5965,18 @@
         <v>0</v>
       </c>
       <c r="C511" s="4">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="4">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B512" s="4">
         <v>0</v>
       </c>
-      <c r="C512" s="5">
-        <v>466</v>
+      <c r="C512" s="4">
+        <v>465</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="C513" s="5">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="C514" s="5">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="C515" s="5">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="C516" s="5">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -6031,18 +6031,18 @@
         <v>0</v>
       </c>
       <c r="C517" s="5">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="4">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B518" s="4">
         <v>0</v>
       </c>
       <c r="C518" s="5">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="C519" s="5">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="C520" s="5">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="C521" s="5">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="C522" s="5">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="C523" s="5">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="C524" s="5">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -6119,18 +6119,18 @@
         <v>0</v>
       </c>
       <c r="C525" s="5">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B526" s="4">
         <v>0</v>
       </c>
       <c r="C526" s="5">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="C527" s="5">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="C528" s="5">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="C529" s="5">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="C530" s="5">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -6185,18 +6185,18 @@
         <v>0</v>
       </c>
       <c r="C531" s="5">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B532" s="4">
         <v>0</v>
       </c>
       <c r="C532" s="5">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="C533" s="5">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="C534" s="5">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="C535" s="5">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="C536" s="5">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -6251,18 +6251,18 @@
         <v>0</v>
       </c>
       <c r="C537" s="5">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="4">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="B538" s="4">
-        <v>1</v>
-      </c>
-      <c r="C538" s="1">
-        <v>492</v>
+        <v>0</v>
+      </c>
+      <c r="C538" s="5">
+        <v>491</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -6270,10 +6270,10 @@
         <v>30</v>
       </c>
       <c r="B539" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C539" s="1">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -6281,10 +6281,10 @@
         <v>30</v>
       </c>
       <c r="B540" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C540" s="1">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -6292,10 +6292,10 @@
         <v>30</v>
       </c>
       <c r="B541" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C541" s="1">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -6303,10 +6303,10 @@
         <v>30</v>
       </c>
       <c r="B542" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C542" s="1">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -6314,21 +6314,21 @@
         <v>30</v>
       </c>
       <c r="B543" s="4">
-        <v>6</v>
-      </c>
-      <c r="C543" s="4">
-        <v>353</v>
+        <v>5</v>
+      </c>
+      <c r="C543" s="1">
+        <v>496</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B544" s="4">
-        <v>1</v>
-      </c>
-      <c r="C544" s="1">
-        <v>497</v>
+        <v>6</v>
+      </c>
+      <c r="C544" s="4">
+        <v>353</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -6336,10 +6336,10 @@
         <v>31</v>
       </c>
       <c r="B545" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C545" s="1">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -6347,10 +6347,10 @@
         <v>31</v>
       </c>
       <c r="B546" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C546" s="1">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -6358,10 +6358,10 @@
         <v>31</v>
       </c>
       <c r="B547" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C547" s="1">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -6369,10 +6369,10 @@
         <v>31</v>
       </c>
       <c r="B548" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C548" s="1">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -6380,10 +6380,10 @@
         <v>31</v>
       </c>
       <c r="B549" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C549" s="1">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -6391,10 +6391,10 @@
         <v>31</v>
       </c>
       <c r="B550" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C550" s="1">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -6402,10 +6402,10 @@
         <v>31</v>
       </c>
       <c r="B551" s="4">
-        <v>8</v>
-      </c>
-      <c r="C551" s="4">
-        <v>492</v>
+        <v>7</v>
+      </c>
+      <c r="C551" s="1">
+        <v>503</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -6413,10 +6413,10 @@
         <v>31</v>
       </c>
       <c r="B552" s="4">
-        <v>9</v>
-      </c>
-      <c r="C552" s="1">
-        <v>504</v>
+        <v>8</v>
+      </c>
+      <c r="C552" s="4">
+        <v>492</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -6424,10 +6424,10 @@
         <v>31</v>
       </c>
       <c r="B553" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C553" s="1">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -6435,10 +6435,10 @@
         <v>31</v>
       </c>
       <c r="B554" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C554" s="1">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -6446,10 +6446,10 @@
         <v>31</v>
       </c>
       <c r="B555" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C555" s="1">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -6457,10 +6457,10 @@
         <v>31</v>
       </c>
       <c r="B556" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C556" s="1">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -6468,21 +6468,21 @@
         <v>31</v>
       </c>
       <c r="B557" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C557" s="1">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B558" s="4">
-        <v>1</v>
-      </c>
-      <c r="C558" s="4">
-        <v>500</v>
+        <v>14</v>
+      </c>
+      <c r="C558" s="1">
+        <v>509</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -6490,10 +6490,10 @@
         <v>32</v>
       </c>
       <c r="B559" s="4">
-        <v>2</v>
-      </c>
-      <c r="C559" s="6">
-        <v>510</v>
+        <v>1</v>
+      </c>
+      <c r="C559" s="4">
+        <v>500</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -6501,10 +6501,10 @@
         <v>32</v>
       </c>
       <c r="B560" s="4">
-        <v>3</v>
-      </c>
-      <c r="C560" s="1">
-        <v>511</v>
+        <v>2</v>
+      </c>
+      <c r="C560" s="6">
+        <v>510</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -6512,10 +6512,10 @@
         <v>32</v>
       </c>
       <c r="B561" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C561" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -6523,10 +6523,10 @@
         <v>32</v>
       </c>
       <c r="B562" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C562" s="1">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -6534,10 +6534,10 @@
         <v>32</v>
       </c>
       <c r="B563" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C563" s="1">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -6545,10 +6545,10 @@
         <v>32</v>
       </c>
       <c r="B564" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C564" s="1">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -6556,10 +6556,10 @@
         <v>32</v>
       </c>
       <c r="B565" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C565" s="1">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -6567,10 +6567,10 @@
         <v>32</v>
       </c>
       <c r="B566" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C566" s="1">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -6578,10 +6578,10 @@
         <v>32</v>
       </c>
       <c r="B567" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C567" s="1">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -6589,21 +6589,21 @@
         <v>32</v>
       </c>
       <c r="B568" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C568" s="1">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B569" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C569" s="1">
-        <v>500</v>
+        <v>519</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -6611,10 +6611,10 @@
         <v>33</v>
       </c>
       <c r="B570" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C570" s="1">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -6622,10 +6622,10 @@
         <v>33</v>
       </c>
       <c r="B571" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C571" s="1">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -6633,10 +6633,10 @@
         <v>33</v>
       </c>
       <c r="B572" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C572" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -6644,10 +6644,10 @@
         <v>33</v>
       </c>
       <c r="B573" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C573" s="1">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
@@ -6655,10 +6655,10 @@
         <v>33</v>
       </c>
       <c r="B574" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C574" s="1">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
@@ -6666,10 +6666,10 @@
         <v>33</v>
       </c>
       <c r="B575" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C575" s="1">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -6677,10 +6677,10 @@
         <v>33</v>
       </c>
       <c r="B576" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C576" s="1">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -6688,10 +6688,10 @@
         <v>33</v>
       </c>
       <c r="B577" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C577" s="1">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -6699,10 +6699,10 @@
         <v>33</v>
       </c>
       <c r="B578" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C578" s="1">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -6710,10 +6710,10 @@
         <v>33</v>
       </c>
       <c r="B579" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C579" s="1">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -6721,10 +6721,10 @@
         <v>33</v>
       </c>
       <c r="B580" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C580" s="1">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -6732,10 +6732,10 @@
         <v>33</v>
       </c>
       <c r="B581" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C581" s="1">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -6743,21 +6743,21 @@
         <v>33</v>
       </c>
       <c r="B582" s="4">
-        <v>14</v>
-      </c>
-      <c r="C582" s="4">
-        <v>427</v>
+        <v>13</v>
+      </c>
+      <c r="C582" s="1">
+        <v>525</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="4">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="B583" s="4">
-        <v>0</v>
-      </c>
-      <c r="C583" s="1">
-        <v>526</v>
+        <v>14</v>
+      </c>
+      <c r="C583" s="4">
+        <v>427</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="C584" s="1">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="C585" s="1">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="C586" s="1">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="C587" s="1">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="C588" s="1">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="C589" s="1">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -6834,18 +6834,18 @@
         <v>0</v>
       </c>
       <c r="C590" s="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" s="4">
+        <v>107</v>
+      </c>
+      <c r="B591" s="4">
+        <v>0</v>
+      </c>
+      <c r="C591" s="1">
         <v>533</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A591" s="1">
-        <v>34</v>
-      </c>
-      <c r="B591" s="1">
-        <v>1</v>
-      </c>
-      <c r="C591" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -6853,10 +6853,10 @@
         <v>34</v>
       </c>
       <c r="B592" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C592" s="1">
-        <v>534</v>
+        <v>9</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -6864,10 +6864,10 @@
         <v>34</v>
       </c>
       <c r="B593" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C593" s="1">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -6875,10 +6875,10 @@
         <v>34</v>
       </c>
       <c r="B594" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C594" s="1">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -6886,10 +6886,10 @@
         <v>34</v>
       </c>
       <c r="B595" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C595" s="1">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -6897,10 +6897,10 @@
         <v>34</v>
       </c>
       <c r="B596" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C596" s="1">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -6908,10 +6908,10 @@
         <v>34</v>
       </c>
       <c r="B597" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C597" s="1">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -6919,10 +6919,10 @@
         <v>34</v>
       </c>
       <c r="B598" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C598" s="1">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -6930,21 +6930,21 @@
         <v>34</v>
       </c>
       <c r="B599" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C599" s="1">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="B600" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C600" s="1">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="C601" s="1">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="C602" s="1">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -6977,18 +6977,18 @@
         <v>0</v>
       </c>
       <c r="C603" s="1">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B604" s="1">
-        <v>1</v>
-      </c>
-      <c r="C604" s="6">
-        <v>544</v>
+        <v>0</v>
+      </c>
+      <c r="C604" s="1">
+        <v>558</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -6996,10 +6996,10 @@
         <v>35</v>
       </c>
       <c r="B605" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C605" s="6">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -7007,10 +7007,10 @@
         <v>35</v>
       </c>
       <c r="B606" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C606" s="6">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -7018,10 +7018,10 @@
         <v>35</v>
       </c>
       <c r="B607" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C607" s="6">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -7029,10 +7029,10 @@
         <v>35</v>
       </c>
       <c r="B608" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C608" s="6">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -7040,10 +7040,10 @@
         <v>35</v>
       </c>
       <c r="B609" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C609" s="6">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -7051,10 +7051,10 @@
         <v>35</v>
       </c>
       <c r="B610" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C610" s="6">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -7062,10 +7062,10 @@
         <v>35</v>
       </c>
       <c r="B611" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C611" s="6">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -7073,10 +7073,10 @@
         <v>35</v>
       </c>
       <c r="B612" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C612" s="6">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -7084,10 +7084,10 @@
         <v>35</v>
       </c>
       <c r="B613" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C613" s="6">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -7095,10 +7095,10 @@
         <v>35</v>
       </c>
       <c r="B614" s="1">
-        <v>11</v>
-      </c>
-      <c r="C614" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C614" s="6">
+        <v>553</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -7106,21 +7106,21 @@
         <v>35</v>
       </c>
       <c r="B615" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C615" s="1">
-        <v>554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B616" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C616" s="1">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -7128,10 +7128,10 @@
         <v>36</v>
       </c>
       <c r="B617" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C617" s="1">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -7139,10 +7139,10 @@
         <v>36</v>
       </c>
       <c r="B618" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C618" s="1">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -7150,21 +7150,21 @@
         <v>36</v>
       </c>
       <c r="B619" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C619" s="1">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B620" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C620" s="1">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -7172,10 +7172,10 @@
         <v>37</v>
       </c>
       <c r="B621" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C621" s="1">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -7183,10 +7183,10 @@
         <v>37</v>
       </c>
       <c r="B622" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C622" s="1">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
@@ -7194,10 +7194,10 @@
         <v>37</v>
       </c>
       <c r="B623" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C623" s="1">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
@@ -7205,10 +7205,10 @@
         <v>37</v>
       </c>
       <c r="B624" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C624" s="1">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
@@ -7216,10 +7216,10 @@
         <v>37</v>
       </c>
       <c r="B625" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C625" s="1">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
@@ -7227,10 +7227,10 @@
         <v>37</v>
       </c>
       <c r="B626" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C626" s="1">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -7238,10 +7238,10 @@
         <v>37</v>
       </c>
       <c r="B627" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C627" s="1">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -7249,10 +7249,10 @@
         <v>37</v>
       </c>
       <c r="B628" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C628" s="1">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
@@ -7260,10 +7260,10 @@
         <v>37</v>
       </c>
       <c r="B629" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C629" s="1">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -7271,10 +7271,10 @@
         <v>37</v>
       </c>
       <c r="B630" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C630" s="1">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -7282,10 +7282,10 @@
         <v>37</v>
       </c>
       <c r="B631" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C631" s="1">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
@@ -7293,10 +7293,10 @@
         <v>37</v>
       </c>
       <c r="B632" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C632" s="1">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
@@ -7304,10 +7304,10 @@
         <v>37</v>
       </c>
       <c r="B633" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C633" s="1">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
@@ -7315,10 +7315,10 @@
         <v>37</v>
       </c>
       <c r="B634" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C634" s="1">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
@@ -7326,10 +7326,10 @@
         <v>37</v>
       </c>
       <c r="B635" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C635" s="1">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
@@ -7337,10 +7337,10 @@
         <v>37</v>
       </c>
       <c r="B636" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C636" s="1">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -7348,10 +7348,10 @@
         <v>37</v>
       </c>
       <c r="B637" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C637" s="1">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
@@ -7359,21 +7359,21 @@
         <v>37</v>
       </c>
       <c r="B638" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C638" s="1">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B639" s="1">
-        <v>1</v>
-      </c>
-      <c r="C639" s="6">
-        <v>577</v>
+        <v>19</v>
+      </c>
+      <c r="C639" s="1">
+        <v>576</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
@@ -7381,10 +7381,10 @@
         <v>38</v>
       </c>
       <c r="B640" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C640" s="6">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -7392,10 +7392,10 @@
         <v>38</v>
       </c>
       <c r="B641" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C641" s="6">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
@@ -7403,10 +7403,10 @@
         <v>38</v>
       </c>
       <c r="B642" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C642" s="6">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
@@ -7414,10 +7414,10 @@
         <v>38</v>
       </c>
       <c r="B643" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C643" s="6">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
@@ -7425,10 +7425,10 @@
         <v>38</v>
       </c>
       <c r="B644" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C644" s="6">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -7436,10 +7436,10 @@
         <v>38</v>
       </c>
       <c r="B645" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C645" s="6">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
@@ -7447,10 +7447,10 @@
         <v>38</v>
       </c>
       <c r="B646" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C646" s="6">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
@@ -7458,10 +7458,10 @@
         <v>38</v>
       </c>
       <c r="B647" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C647" s="6">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
@@ -7469,10 +7469,10 @@
         <v>38</v>
       </c>
       <c r="B648" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C648" s="6">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
@@ -7480,10 +7480,10 @@
         <v>38</v>
       </c>
       <c r="B649" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C649" s="6">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
@@ -7491,21 +7491,21 @@
         <v>38</v>
       </c>
       <c r="B650" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C650" s="6">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B651" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C651" s="6">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
@@ -7513,10 +7513,10 @@
         <v>39</v>
       </c>
       <c r="B652" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C652" s="6">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
@@ -7524,10 +7524,10 @@
         <v>39</v>
       </c>
       <c r="B653" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C653" s="6">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
@@ -7535,10 +7535,10 @@
         <v>39</v>
       </c>
       <c r="B654" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C654" s="6">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
@@ -7546,10 +7546,10 @@
         <v>39</v>
       </c>
       <c r="B655" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C655" s="6">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
@@ -7557,10 +7557,10 @@
         <v>39</v>
       </c>
       <c r="B656" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C656" s="6">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
@@ -7568,10 +7568,10 @@
         <v>39</v>
       </c>
       <c r="B657" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C657" s="6">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
@@ -7579,10 +7579,10 @@
         <v>39</v>
       </c>
       <c r="B658" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C658" s="6">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
@@ -7590,10 +7590,10 @@
         <v>39</v>
       </c>
       <c r="B659" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C659" s="6">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
@@ -7601,36 +7601,66 @@
         <v>39</v>
       </c>
       <c r="B660" s="1">
+        <v>9</v>
+      </c>
+      <c r="C660" s="6">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>39</v>
+      </c>
+      <c r="B661" s="1">
         <v>10</v>
       </c>
-      <c r="C660" s="6">
+      <c r="C661" s="6">
         <v>598</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A661" s="1"/>
-      <c r="B661" s="1"/>
-      <c r="C661" s="1"/>
-    </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A662" s="1"/>
-      <c r="B662" s="1"/>
-      <c r="C662" s="1"/>
+      <c r="A662" s="1">
+        <v>109</v>
+      </c>
+      <c r="B662" s="1">
+        <v>0</v>
+      </c>
+      <c r="C662" s="6">
+        <v>600</v>
+      </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A663" s="1"/>
-      <c r="B663" s="1"/>
-      <c r="C663" s="1"/>
+      <c r="A663" s="1">
+        <v>109</v>
+      </c>
+      <c r="B663" s="1">
+        <v>0</v>
+      </c>
+      <c r="C663" s="6">
+        <v>601</v>
+      </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A664" s="1"/>
-      <c r="B664" s="1"/>
-      <c r="C664" s="1"/>
+      <c r="A664" s="1">
+        <v>109</v>
+      </c>
+      <c r="B664" s="1">
+        <v>0</v>
+      </c>
+      <c r="C664" s="6">
+        <v>602</v>
+      </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A665" s="1"/>
-      <c r="B665" s="1"/>
-      <c r="C665" s="1"/>
+      <c r="A665" s="1">
+        <v>109</v>
+      </c>
+      <c r="B665" s="1">
+        <v>0</v>
+      </c>
+      <c r="C665" s="6">
+        <v>603</v>
+      </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
@@ -8006,6 +8036,11 @@
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741" s="1"/>
+      <c r="B741" s="1"/>
+      <c r="C741" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
